--- a/medicine/Pharmacie/Paraméthoxyamphétamine/Paraméthoxyamphétamine.xlsx
+++ b/medicine/Pharmacie/Paraméthoxyamphétamine/Paraméthoxyamphétamine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Param%C3%A9thoxyamph%C3%A9tamine</t>
+          <t>Paraméthoxyamphétamine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La PMA ou paraméthoxyamphétamine  est une drogue de synthèse souvent vendue sous forme de comprimé qui appartient à la famille des phényléthylamines.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Param%C3%A9thoxyamph%C3%A9tamine</t>
+          <t>Paraméthoxyamphétamine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est synthétisée à partir d'anéthol, une molécule au goût anisé présente dans le pastis.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Param%C3%A9thoxyamph%C3%A9tamine</t>
+          <t>Paraméthoxyamphétamine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une drogue psychostimulante et hallucinogène.
-Ses propriétés hallucinogènes sont cinq fois plus importantes que ceux du MDA[2].
-Elle provoque dans le cerveau une forte libération de dopamine, sérotonine et de noradrénaline[2].
+Ses propriétés hallucinogènes sont cinq fois plus importantes que ceux du MDA.
+Elle provoque dans le cerveau une forte libération de dopamine, sérotonine et de noradrénaline.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Param%C3%A9thoxyamph%C3%A9tamine</t>
+          <t>Paraméthoxyamphétamine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,14 +593,16 @@
           <t>Usage récréatif et détourné</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vendue sur le marché clandestin sous forme de comprimé, elle est souvent confondue avec de l'ecstasy ce qui a déjà provoqué de nombreux morts et donne à cette drogue une mauvaise réputation[2]. En effet, son délai d'action est de une à deux heures (plus long que la MDMA), ce qui incite le consommateur à augmenter la dose ou à l'associer à d'autres drogues.
-Elle est consommée pour ses effets stimulants et hallucinogènes[2] qui peuvent se manifester pendant cinq à sept heures.
-Ses effets[2] sur l'organisme sont :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vendue sur le marché clandestin sous forme de comprimé, elle est souvent confondue avec de l'ecstasy ce qui a déjà provoqué de nombreux morts et donne à cette drogue une mauvaise réputation. En effet, son délai d'action est de une à deux heures (plus long que la MDMA), ce qui incite le consommateur à augmenter la dose ou à l'associer à d'autres drogues.
+Elle est consommée pour ses effets stimulants et hallucinogènes qui peuvent se manifester pendant cinq à sept heures.
+Ses effets sur l'organisme sont :
 À faible dose (inférieure à 50 mg), elle provoque des troubles psychiatriques (délire, agitation, confusion, hallucination), des mouvements irréguliers des yeux, des troubles cardio-vasculaires (tachycardie, hypertension artérielle), une hyperthermie mais aussi des troubles digestifs (diarrhée, nausée, vomissement) ;
 À forte dose (au-delà de 50 mg), elle peut provoquer des dépressions respiratoires, des spasmes musculaires, des convulsions et éventuellement la mort.
-Selon la DEA, cette molécule serait plus dangereuse que la MDMA[2].
+Selon la DEA, cette molécule serait plus dangereuse que la MDMA.
 </t>
         </is>
       </c>
